--- a/00.기획서/221016_호감도 정의 문서_V100.xlsx
+++ b/00.기획서/221016_호감도 정의 문서_V100.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효진\OneDrive\바탕 화면\RocketTeamDocu\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60B5472-70B8-42E5-B85F-C512F032972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="1200" windowWidth="19785" windowHeight="14010" xr2:uid="{1B5EC085-6FA6-4249-9EC6-2AD19855E084}"/>
+    <workbookView xWindow="6780" yWindow="1200" windowWidth="19785" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,11 +218,19 @@
     <t>한 번 상승한 레벨 단계는 호감도 수치가 0일 때 하락하여도 강등 하지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> Ex) 호감도 총량 120 획득 시 호감도 레벨 2로 상승, 호감도 게이지 20 남음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레벨 단계 마다 요구하는 호감도 수치 이상을 획득 했을 때, 레벨 상승 반영 후 차감된 수치 만큼 호감도 게이지에 반영한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,14 +378,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>52528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>182460</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>67227</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>67226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -715,12 +722,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AAB4D3-3F89-477D-AA12-114E56F66807}">
-  <dimension ref="B2:N68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -891,134 +896,99 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>29</v>
+      <c r="D22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="5"/>
-      <c r="C27" s="3" t="s">
+    <row r="30" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+      <c r="C30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C30">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C31">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="C33" s="3" t="s">
+    <row r="36" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
@@ -1035,6 +1005,21 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
@@ -1065,21 +1050,6 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-    </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="6"/>
@@ -1110,6 +1080,21 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="6"/>
@@ -1140,101 +1125,131 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="8"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="50" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="5"/>
-      <c r="C50" s="3" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="53" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+      <c r="C53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
         <v>17</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D66" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" t="s">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
         <v>26</v>
       </c>
     </row>
